--- a/BackTest/2019-10-28 BackTest BCH.xlsx
+++ b/BackTest/2019-10-28 BackTest BCH.xlsx
@@ -451,20 +451,14 @@
         <v>297000</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>297200</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -499,11 +493,7 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -538,11 +528,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -577,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -616,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -655,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -694,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -733,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -772,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -811,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -850,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -889,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -928,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -967,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1240,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1318,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1513,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1552,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1630,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1669,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1708,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1743,15 +1609,11 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1942,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2059,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2098,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2406,15 +2204,11 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2449,12 +2243,10 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4194,14 +3986,20 @@
         <v>294133.3333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>294000</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +4027,20 @@
         <v>293700</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>293800</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4264,14 +4068,20 @@
         <v>293566.6666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>293300</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4299,14 +4109,20 @@
         <v>293633.3333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>293600</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4334,14 +4150,20 @@
         <v>294000</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>294000</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4376,7 +4198,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4411,7 +4237,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4276,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4315,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4516,7 +4354,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4551,7 +4393,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4586,7 +4432,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4621,7 +4471,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4656,7 +4510,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4691,7 +4549,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4726,7 +4588,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +4627,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4796,7 +4666,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4831,7 +4705,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4866,7 +4744,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +4783,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4936,7 +4822,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4964,18 +4854,16 @@
         <v>294833.3333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>294800</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -5005,14 +4893,12 @@
         <v>294933.3333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>295200</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5046,14 +4932,12 @@
         <v>295166.6666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>295000</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5087,14 +4971,12 @@
         <v>295133.3333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>295400</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5128,14 +5010,12 @@
         <v>295033.3333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>295000</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5169,14 +5049,12 @@
         <v>294933.3333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>294900</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5210,14 +5088,12 @@
         <v>294866.6666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>294800</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5251,14 +5127,12 @@
         <v>294633.3333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>294500</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5292,14 +5166,12 @@
         <v>294366.6666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>294200</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5333,14 +5205,12 @@
         <v>294233.3333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>294500</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5374,14 +5244,12 @@
         <v>294166.6666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>294400</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5415,14 +5283,12 @@
         <v>294033.3333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>294100</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5456,14 +5322,12 @@
         <v>293600</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>293500</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5497,14 +5361,12 @@
         <v>293300</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>293100</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5538,14 +5400,12 @@
         <v>292900</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>293100</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5579,14 +5439,12 @@
         <v>292866.6666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>292300</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5620,14 +5478,12 @@
         <v>292500</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>292800</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5661,14 +5517,12 @@
         <v>292533.3333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>292000</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5741,14 +5595,12 @@
         <v>292933.3333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>292900</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5782,14 +5634,12 @@
         <v>293433.3333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>293500</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5823,14 +5673,12 @@
         <v>293666.6666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>293700</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5864,14 +5712,12 @@
         <v>293766.6666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>294000</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5905,14 +5751,12 @@
         <v>293800</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>294000</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5946,14 +5790,12 @@
         <v>293933.3333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>294000</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5987,14 +5829,12 @@
         <v>294066.6666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>293800</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6028,14 +5868,12 @@
         <v>294100</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>294300</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6069,14 +5907,12 @@
         <v>294200</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>294300</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6110,14 +5946,12 @@
         <v>294533.3333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>295000</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6151,14 +5985,12 @@
         <v>294866.6666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>295200</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6192,14 +6024,12 @@
         <v>295133.3333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>295200</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6233,14 +6063,12 @@
         <v>295033.3333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>294900</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6274,14 +6102,12 @@
         <v>294900</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>294500</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6315,14 +6141,12 @@
         <v>294733.3333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>294700</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6356,14 +6180,12 @@
         <v>294666.6666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>294400</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6397,14 +6219,12 @@
         <v>294666.6666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>294700</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6438,14 +6258,12 @@
         <v>294833.3333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>295100</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6479,14 +6297,12 @@
         <v>294800</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>295000</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6520,14 +6336,12 @@
         <v>294733.3333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>294800</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6561,14 +6375,12 @@
         <v>294666.6666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>294700</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6602,14 +6414,12 @@
         <v>294900</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>294800</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6643,14 +6453,12 @@
         <v>295300</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>295500</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6684,14 +6492,12 @@
         <v>295733.3333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>295800</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6725,14 +6531,12 @@
         <v>296166.6666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>296400</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6766,14 +6570,12 @@
         <v>296500</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>296700</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6807,14 +6609,12 @@
         <v>296666.6666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>296900</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6848,14 +6648,12 @@
         <v>297133.3333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>296900</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6889,14 +6687,12 @@
         <v>297500</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>298000</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -11106,18 +10902,16 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11145,15 +10939,11 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11188,12 +10978,10 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -30226,7 +30014,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest BCH.xlsx
+++ b/BackTest/2019-10-28 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>232.0170136800002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>266.8871136800002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>295600</v>
@@ -523,7 +523,7 @@
         <v>280.9738136800002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>295700</v>
@@ -562,7 +562,7 @@
         <v>315.9787136800002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>296100</v>
@@ -601,7 +601,7 @@
         <v>216.1591136800002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>296500</v>
@@ -640,7 +640,7 @@
         <v>-9.370786319999752</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>295400</v>
@@ -679,7 +679,7 @@
         <v>-22.32208631999975</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>294600</v>
@@ -718,9 +718,11 @@
         <v>-22.32208631999975</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>294300</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,9 +757,11 @@
         <v>-22.32208631999975</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>294300</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,9 +796,11 @@
         <v>-14.68768631999975</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>294300</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,9 +835,11 @@
         <v>-16.21208631999975</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>294400</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -903,9 +911,11 @@
         <v>-146.4273508199998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>293100</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -940,9 +950,11 @@
         <v>-122.0794153199998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>292600</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -977,9 +989,11 @@
         <v>-122.0794153199998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>293000</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1014,9 +1028,11 @@
         <v>-215.1589153199997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>293000</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1051,9 +1067,11 @@
         <v>-261.2801153199998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>292800</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1088,9 +1106,11 @@
         <v>-250.2409153199998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>292300</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1125,9 +1145,11 @@
         <v>-227.4442153199998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>292500</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1162,9 +1184,11 @@
         <v>-190.3542153199998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>293100</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1199,9 +1223,11 @@
         <v>-181.3140153199998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>293500</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1236,9 +1262,11 @@
         <v>-171.9064153199998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>293700</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1273,9 +1301,11 @@
         <v>-161.8818153199998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>293800</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1310,9 +1340,11 @@
         <v>-159.1079153199998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>294100</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1347,9 +1379,11 @@
         <v>-191.0772153199998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>294400</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1384,9 +1418,11 @@
         <v>-191.0772153199998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>294100</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1421,9 +1457,11 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>294100</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1458,9 +1496,11 @@
         <v>-174.5768738599998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>294200</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1495,7 +1535,7 @@
         <v>-287.2312738599998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>294200</v>
@@ -1534,9 +1574,11 @@
         <v>-286.1312738599998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>293600</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1571,9 +1613,11 @@
         <v>-290.3901738599998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>294000</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1608,9 +1652,11 @@
         <v>-273.8857738599998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>293900</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1645,9 +1691,11 @@
         <v>-278.1635738599998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>294200</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1682,9 +1730,11 @@
         <v>-267.6014738599998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>294000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1719,9 +1769,11 @@
         <v>-261.2127738599999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>294400</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1756,9 +1808,11 @@
         <v>-236.3791738599999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>295000</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1793,9 +1847,11 @@
         <v>-285.2495738599999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>295500</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1830,9 +1886,11 @@
         <v>-285.2495738599999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>295400</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1867,9 +1925,11 @@
         <v>-292.6431738599999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>295400</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1904,9 +1964,11 @@
         <v>-268.3561738599999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>295200</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1941,9 +2003,11 @@
         <v>-316.8720738599999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>295300</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1978,9 +2042,11 @@
         <v>-358.4860738599999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>294700</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2015,9 +2081,11 @@
         <v>-350.6726938699999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>294500</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2052,9 +2120,11 @@
         <v>-369.0853938699998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>294900</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2089,9 +2159,11 @@
         <v>-339.1599938699998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>294200</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2126,9 +2198,11 @@
         <v>-339.1599938699998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>294700</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2163,9 +2237,11 @@
         <v>-333.4718938699998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>294700</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2237,9 +2313,11 @@
         <v>-301.4467938699998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>295100</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2274,9 +2352,11 @@
         <v>-351.6643938699998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>295700</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2311,9 +2391,11 @@
         <v>-351.6643938699998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>295200</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2348,9 +2430,11 @@
         <v>-325.3706938699998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>295200</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2385,9 +2469,11 @@
         <v>-346.3650938699998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>295800</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2422,9 +2508,11 @@
         <v>-342.9309938699998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>295500</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2459,9 +2547,11 @@
         <v>-336.7373938699998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>295900</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2496,9 +2586,11 @@
         <v>-209.3211938699998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>296000</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2681,9 +2773,11 @@
         <v>-206.5848938699998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>297300</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2718,9 +2812,11 @@
         <v>-234.1785938699998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>296900</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2755,9 +2851,11 @@
         <v>-242.6113938699998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>296400</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2792,9 +2890,11 @@
         <v>-201.3308342499998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>296200</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2829,9 +2929,11 @@
         <v>-140.4719342499998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>296700</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2866,7 +2968,7 @@
         <v>-175.3215342499998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>296800</v>
@@ -2905,7 +3007,7 @@
         <v>-169.3168342499998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>296000</v>
@@ -2944,9 +3046,11 @@
         <v>-169.3168342499998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>296200</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2981,7 +3085,7 @@
         <v>-164.3168342499998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>296200</v>
@@ -3020,9 +3124,11 @@
         <v>-164.3168342499998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>296400</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3057,7 +3163,7 @@
         <v>-166.7911342499998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>296400</v>
@@ -3096,7 +3202,7 @@
         <v>-162.7015342499998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>296000</v>
@@ -3135,7 +3241,7 @@
         <v>-198.9371342499998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>296300</v>
@@ -3174,7 +3280,7 @@
         <v>-118.3416342499998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>296100</v>
@@ -3213,9 +3319,11 @@
         <v>-118.3416342499998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>296200</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3250,7 +3358,7 @@
         <v>-78.37653424999985</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>296200</v>
@@ -3289,9 +3397,11 @@
         <v>-1.419734249999848</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>296500</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3326,9 +3436,11 @@
         <v>22.30756575000015</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>296700</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3363,9 +3475,11 @@
         <v>97.24646575000016</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>297200</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3400,9 +3514,11 @@
         <v>162.9771915800002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>297900</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3437,9 +3553,11 @@
         <v>87.99579158000016</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>298800</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -8099,9 +8217,11 @@
         <v>367.7796613900002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>294100</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8136,9 +8256,11 @@
         <v>417.9084613900002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>293900</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8173,9 +8295,11 @@
         <v>417.9084613900002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>294200</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8210,7 +8334,7 @@
         <v>417.9084613900002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>294200</v>
@@ -8249,9 +8373,11 @@
         <v>429.5998613900002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>294200</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8693,9 +8819,11 @@
         <v>413.9143613900002</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>294800</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8730,9 +8858,11 @@
         <v>426.7091613900002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>295300</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -9840,9 +9970,11 @@
         <v>196.1862356800001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>297200</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9877,9 +10009,11 @@
         <v>199.9024356800001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>296900</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9914,9 +10048,11 @@
         <v>237.4687343300001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>297000</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9951,9 +10087,11 @@
         <v>236.6153343300001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>297600</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9988,9 +10126,11 @@
         <v>232.7700343300001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>297200</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10025,9 +10165,11 @@
         <v>235.0640343300001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>297000</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10062,9 +10204,11 @@
         <v>400.1309343300001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>297100</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -11690,9 +11834,11 @@
         <v>-233.86146633</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>297700</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11727,9 +11873,11 @@
         <v>-217.60386633</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>298300</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11764,9 +11912,11 @@
         <v>-203.06306633</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>298400</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11801,9 +11951,11 @@
         <v>-207.24456633</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>299000</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11838,9 +11990,11 @@
         <v>-167.40406633</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>298900</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11875,9 +12029,11 @@
         <v>-212.23316633</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>299900</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11949,9 +12105,11 @@
         <v>-168.06956633</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>299900</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -13799,7 +13957,7 @@
         <v>1778.03719976</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13947,7 +14105,7 @@
         <v>1600.12469976</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13984,7 +14142,7 @@
         <v>1600.12469976</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14021,7 +14179,7 @@
         <v>1604.32979976</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14058,7 +14216,7 @@
         <v>1658.42469976</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14095,7 +14253,7 @@
         <v>1632.90219648</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14169,7 +14327,7 @@
         <v>1497.09039648</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14243,7 +14401,7 @@
         <v>1318.79269648</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14317,7 +14475,7 @@
         <v>1449.43979648</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14391,7 +14549,7 @@
         <v>1425.32039648</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14539,7 +14697,7 @@
         <v>1492.38879648</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14576,7 +14734,7 @@
         <v>1573.35879648</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14613,7 +14771,7 @@
         <v>1622.96319648</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14650,7 +14808,7 @@
         <v>1702.11109648</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14687,7 +14845,7 @@
         <v>1664.54489648</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15982,7 +16140,7 @@
         <v>1207.5072977</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16389,7 +16547,7 @@
         <v>938.7002016899994</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16981,7 +17139,7 @@
         <v>811.3206016899993</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17018,7 +17176,7 @@
         <v>855.7765016899993</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17129,7 +17287,7 @@
         <v>839.8648016899992</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17166,7 +17324,7 @@
         <v>857.5870016899993</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17203,7 +17361,7 @@
         <v>857.5870016899993</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17240,7 +17398,7 @@
         <v>838.5194016899993</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17425,7 +17583,7 @@
         <v>886.4802016899993</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17721,7 +17879,7 @@
         <v>886.442334569999</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -21347,16 +21505,18 @@
         <v>1287.986182089999</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L566" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
       <c r="M566" t="inlineStr"/>
     </row>
     <row r="567">
@@ -21382,11 +21542,15 @@
         <v>1307.394982089999</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21415,11 +21579,15 @@
         <v>1303.985482089999</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21448,11 +21616,15 @@
         <v>1303.985482089999</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21481,11 +21653,15 @@
         <v>1303.601182089999</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21514,11 +21690,15 @@
         <v>1303.979782089999</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21547,11 +21727,15 @@
         <v>1286.942782089999</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21580,11 +21764,15 @@
         <v>1315.333782089999</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21617,7 +21805,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21650,7 +21842,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21679,11 +21875,15 @@
         <v>1387.120982089999</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21712,11 +21912,15 @@
         <v>1405.190982089999</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21745,11 +21949,15 @@
         <v>1405.190982089999</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21778,11 +21986,15 @@
         <v>1402.527182089999</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21811,11 +22023,15 @@
         <v>1404.689882089999</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21848,7 +22064,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21881,7 +22101,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21914,7 +22138,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21947,7 +22175,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21980,7 +22212,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22013,7 +22249,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22046,7 +22286,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22079,7 +22323,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22112,7 +22360,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22145,7 +22397,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22174,11 +22430,15 @@
         <v>1336.187260089999</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22211,7 +22471,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22244,7 +22508,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22277,7 +22545,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22310,7 +22582,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22343,7 +22619,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22376,7 +22656,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22409,7 +22693,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22442,7 +22730,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22475,7 +22767,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22508,7 +22804,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22541,7 +22841,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22574,7 +22878,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22607,7 +22915,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22640,7 +22952,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22673,7 +22989,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22706,7 +23026,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22739,7 +23063,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22772,7 +23100,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22805,7 +23137,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22838,7 +23174,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22871,7 +23211,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22900,11 +23244,15 @@
         <v>1208.87486009</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22937,7 +23285,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22970,7 +23322,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23003,7 +23359,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23036,7 +23396,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23069,7 +23433,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23102,7 +23470,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23135,7 +23507,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23168,7 +23544,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23201,7 +23581,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23234,7 +23618,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23267,7 +23655,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23300,7 +23692,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23333,7 +23729,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23366,7 +23766,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23399,7 +23803,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23432,7 +23840,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +23877,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23498,7 +23914,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23531,7 +23951,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23564,7 +23988,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23597,7 +24025,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23630,7 +24062,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23663,7 +24099,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23696,7 +24136,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23729,7 +24173,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23762,7 +24210,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23795,7 +24247,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23828,7 +24284,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23861,7 +24321,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23894,7 +24358,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23927,7 +24395,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23960,7 +24432,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23993,7 +24469,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24026,7 +24506,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24059,7 +24543,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24092,7 +24580,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24125,7 +24617,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24158,7 +24654,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24191,7 +24691,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24224,7 +24728,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24257,7 +24765,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24290,7 +24802,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24323,7 +24839,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24356,7 +24876,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24389,7 +24913,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24422,7 +24950,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24455,7 +24987,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24488,7 +25024,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24521,7 +25061,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24554,7 +25098,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24587,7 +25135,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24620,7 +25172,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24653,7 +25209,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24686,7 +25246,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24719,7 +25283,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24752,7 +25320,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24785,7 +25357,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +25394,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24851,7 +25431,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24884,7 +25468,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24917,7 +25505,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24950,7 +25542,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24983,7 +25579,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25016,7 +25616,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25049,7 +25653,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25082,7 +25690,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25115,7 +25727,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25148,7 +25764,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25181,7 +25801,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25214,7 +25838,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25247,7 +25875,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25280,7 +25912,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25313,7 +25949,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25346,7 +25986,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25379,7 +26023,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25412,7 +26060,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25445,7 +26097,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25478,7 +26134,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25511,7 +26171,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25544,7 +26208,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25577,7 +26245,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25610,7 +26282,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25643,7 +26319,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25676,7 +26356,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25709,7 +26393,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25742,7 +26430,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25775,7 +26467,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25808,7 +26504,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25841,7 +26541,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25874,7 +26578,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25907,7 +26615,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25940,7 +26652,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25973,7 +26689,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26006,7 +26726,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26039,7 +26763,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26072,7 +26800,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26105,7 +26837,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26138,7 +26874,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26171,7 +26911,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26204,7 +26948,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26237,7 +26985,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26270,7 +27022,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26303,7 +27059,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26332,11 +27092,15 @@
         <v>959.4761935999999</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26365,11 +27129,15 @@
         <v>973.9402935999999</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26398,11 +27166,15 @@
         <v>953.6714935999998</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26431,11 +27203,15 @@
         <v>953.6714935999998</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26464,11 +27240,15 @@
         <v>962.3632935999999</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26497,11 +27277,15 @@
         <v>998.3781935999999</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26530,11 +27314,15 @@
         <v>1027.9764936</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26567,7 +27355,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26600,7 +27392,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26633,7 +27429,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26666,7 +27466,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26699,7 +27503,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26732,7 +27540,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26765,7 +27577,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26798,7 +27614,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26831,7 +27651,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26864,7 +27688,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26897,7 +27725,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26930,7 +27762,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26963,7 +27799,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26996,7 +27836,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27029,7 +27873,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27062,7 +27910,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27095,7 +27947,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27128,7 +27984,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27161,7 +28021,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27194,7 +28058,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27227,7 +28095,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27260,7 +28132,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27293,7 +28169,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27326,7 +28206,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27359,7 +28243,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27392,7 +28280,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27425,7 +28317,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27458,7 +28354,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27491,7 +28391,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27524,7 +28428,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27557,7 +28465,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27590,7 +28502,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27623,7 +28539,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27656,7 +28576,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27689,7 +28613,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27722,7 +28650,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27755,7 +28687,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27788,7 +28724,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27821,7 +28761,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27854,7 +28798,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27887,7 +28835,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27920,7 +28872,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27953,7 +28909,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27986,7 +28946,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28019,7 +28983,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28052,7 +29020,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28085,7 +29057,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28118,7 +29094,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28151,7 +29131,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28184,7 +29168,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28217,7 +29205,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28250,7 +29242,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28283,7 +29279,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28316,7 +29316,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28349,7 +29353,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28382,7 +29390,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28415,7 +29427,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28448,7 +29464,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28481,7 +29501,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28514,7 +29538,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28547,7 +29575,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28580,7 +29612,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28613,7 +29649,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28646,7 +29686,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28679,7 +29723,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28712,7 +29760,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28745,7 +29797,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28778,7 +29834,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28811,7 +29871,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28844,7 +29908,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28877,7 +29945,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28910,7 +29982,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28943,7 +30019,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28976,7 +30056,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29009,7 +30093,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29042,7 +30130,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29075,7 +30167,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29108,7 +30204,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29141,7 +30241,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29174,7 +30278,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29207,7 +30315,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29240,7 +30352,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29273,7 +30389,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29306,7 +30426,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29339,7 +30463,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29372,7 +30500,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29405,7 +30537,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29438,7 +30574,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29471,7 +30611,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29504,7 +30648,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29537,7 +30685,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29570,7 +30722,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29603,7 +30759,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29636,7 +30796,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29669,7 +30833,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29702,7 +30870,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29735,7 +30907,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29768,7 +30944,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29801,7 +30981,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29834,7 +31018,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29867,7 +31055,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29900,7 +31092,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29933,7 +31129,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29966,7 +31166,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29995,11 +31199,15 @@
         <v>1054.074570179999</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30028,11 +31236,15 @@
         <v>1101.165570179999</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30061,11 +31273,15 @@
         <v>1271.376670179999</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30094,11 +31310,15 @@
         <v>1248.515870179999</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30127,11 +31347,15 @@
         <v>1302.98467018</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30160,11 +31384,15 @@
         <v>1392.083770179999</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30193,11 +31421,15 @@
         <v>1289.251370179999</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30226,11 +31458,15 @@
         <v>1352.94847018</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30259,11 +31495,15 @@
         <v>1352.94847018</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30296,7 +31536,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30329,7 +31573,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30362,7 +31610,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30395,7 +31647,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30428,7 +31684,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30461,7 +31721,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30494,7 +31758,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30527,7 +31795,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30560,7 +31832,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30593,7 +31869,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30626,7 +31906,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30659,7 +31943,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30692,7 +31980,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30725,7 +32017,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30758,7 +32054,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30791,7 +32091,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30824,7 +32128,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30857,7 +32165,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30890,7 +32202,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30923,7 +32239,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30956,7 +32276,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30989,7 +32313,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31022,7 +32350,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31055,7 +32387,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31088,7 +32424,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31121,7 +32461,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31154,7 +32498,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31187,7 +32535,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31220,7 +32572,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31253,7 +32609,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31286,7 +32646,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31319,7 +32683,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31352,7 +32720,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31385,7 +32757,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31418,7 +32794,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31451,7 +32831,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31484,7 +32868,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31517,7 +32905,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31550,7 +32942,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31583,7 +32979,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31616,7 +33016,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31645,11 +33049,15 @@
         <v>1577.84158295</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31682,7 +33090,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31715,7 +33127,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31744,11 +33160,15 @@
         <v>1748.121582949999</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31777,14 +33197,16 @@
         <v>2005.82528295</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
-      <c r="L882" t="n">
-        <v>1</v>
-      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="inlineStr"/>
     </row>
     <row r="883">
@@ -31810,7 +33232,7 @@
         <v>2419.913182949999</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31843,7 +33265,7 @@
         <v>2330.200083209999</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31876,7 +33298,7 @@
         <v>2179.412083209999</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31909,7 +33331,7 @@
         <v>2028.356483209999</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31942,7 +33364,7 @@
         <v>2110.21438321</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31975,7 +33397,7 @@
         <v>2154.51138321</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32008,7 +33430,7 @@
         <v>2203.47818321</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32041,7 +33463,7 @@
         <v>2349.69838321</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32074,7 +33496,7 @@
         <v>2562.80508321</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32107,7 +33529,7 @@
         <v>2431.35858321</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32140,7 +33562,7 @@
         <v>2521.22238321</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32173,7 +33595,7 @@
         <v>2740.90168321</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32206,7 +33628,7 @@
         <v>2692.141034759999</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32239,7 +33661,7 @@
         <v>2620.619634759999</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32272,7 +33694,7 @@
         <v>2389.553934759999</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32305,7 +33727,7 @@
         <v>2188.438234759999</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32338,7 +33760,7 @@
         <v>2278.348034759999</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32371,7 +33793,7 @@
         <v>2343.143634759999</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32404,7 +33826,7 @@
         <v>2338.835634759999</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32437,7 +33859,7 @@
         <v>2331.173034759999</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32470,7 +33892,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32503,7 +33925,7 @@
         <v>2348.185534759999</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32536,7 +33958,7 @@
         <v>2384.335791009999</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32569,7 +33991,7 @@
         <v>2346.545091009999</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32602,7 +34024,7 @@
         <v>2332.235891009999</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32635,7 +34057,7 @@
         <v>2321.560491009999</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32668,7 +34090,7 @@
         <v>2250.355027889999</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32701,7 +34123,7 @@
         <v>2270.054227889999</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32734,7 +34156,7 @@
         <v>2065.045127889999</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32767,7 +34189,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32800,7 +34222,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32833,7 +34255,7 @@
         <v>1968.234927889999</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32866,7 +34288,7 @@
         <v>1961.533527889999</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32899,7 +34321,7 @@
         <v>1978.086127889999</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32932,7 +34354,7 @@
         <v>2002.273127889999</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32965,7 +34387,7 @@
         <v>1993.334627889999</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32998,7 +34420,7 @@
         <v>1993.334627889999</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33031,7 +34453,7 @@
         <v>1942.249227889999</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33064,7 +34486,7 @@
         <v>1884.573127889999</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33097,7 +34519,7 @@
         <v>1884.573127889999</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33130,7 +34552,7 @@
         <v>1862.648027889999</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33163,7 +34585,7 @@
         <v>1837.437827889999</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33196,7 +34618,7 @@
         <v>1888.727027889999</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33229,7 +34651,7 @@
         <v>1865.877327889999</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33262,7 +34684,7 @@
         <v>1861.968527889999</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33295,7 +34717,7 @@
         <v>1866.39752789</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33328,7 +34750,7 @@
         <v>1866.39752789</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33361,7 +34783,7 @@
         <v>1835.56592789</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33394,7 +34816,7 @@
         <v>1846.78242789</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33427,7 +34849,7 @@
         <v>1768.91622789</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33460,7 +34882,7 @@
         <v>1764.01992789</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33493,7 +34915,7 @@
         <v>1808.85772789</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33526,7 +34948,7 @@
         <v>1869.092627889999</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33559,7 +34981,7 @@
         <v>1822.687132629999</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33592,7 +35014,7 @@
         <v>1758.025232629999</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33625,7 +35047,7 @@
         <v>1775.358932629999</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33658,7 +35080,7 @@
         <v>1771.127432629999</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33691,7 +35113,7 @@
         <v>1811.329232629999</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33724,7 +35146,7 @@
         <v>1812.833632629999</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33757,7 +35179,7 @@
         <v>1816.760341589999</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33790,7 +35212,7 @@
         <v>1873.528241589999</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33823,7 +35245,7 @@
         <v>1881.935641589999</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33856,7 +35278,7 @@
         <v>1880.68724159</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33889,7 +35311,7 @@
         <v>1805.95434159</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33922,7 +35344,7 @@
         <v>1805.49064159</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33955,7 +35377,7 @@
         <v>1780.38454159</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33988,7 +35410,7 @@
         <v>1832.39704159</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34021,7 +35443,7 @@
         <v>1832.39704159</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34054,7 +35476,7 @@
         <v>1770.21534159</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34087,7 +35509,7 @@
         <v>1803.520941589999</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34120,7 +35542,7 @@
         <v>1791.51524159</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34153,7 +35575,7 @@
         <v>1791.51524159</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34186,7 +35608,7 @@
         <v>1802.027241589999</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34219,7 +35641,7 @@
         <v>1802.677859669999</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34252,7 +35674,7 @@
         <v>1802.83235967</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34285,7 +35707,7 @@
         <v>1861.477659669999</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34318,7 +35740,7 @@
         <v>1806.814459669999</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34351,7 +35773,7 @@
         <v>1764.527559669999</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34384,7 +35806,7 @@
         <v>1699.271959669999</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34417,7 +35839,7 @@
         <v>1751.409959669999</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34450,7 +35872,7 @@
         <v>1753.512159669999</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34483,7 +35905,7 @@
         <v>1731.470559669999</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34516,7 +35938,7 @@
         <v>1766.659959669999</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34549,7 +35971,7 @@
         <v>1772.629059669999</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34582,7 +36004,7 @@
         <v>1731.548059669999</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34615,7 +36037,7 @@
         <v>1710.128859669999</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34648,7 +36070,7 @@
         <v>1711.178859669999</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34681,7 +36103,7 @@
         <v>1686.748159669999</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34714,7 +36136,7 @@
         <v>1661.748159669999</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34747,7 +36169,7 @@
         <v>1680.351659669999</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34780,7 +36202,7 @@
         <v>1702.33325967</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34813,7 +36235,7 @@
         <v>1784.34405967</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34846,7 +36268,7 @@
         <v>1761.94075967</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34879,7 +36301,7 @@
         <v>1698.23935967</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34912,7 +36334,7 @@
         <v>1698.62225967</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34945,7 +36367,7 @@
         <v>1637.96645967</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34978,7 +36400,7 @@
         <v>1597.03425967</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35011,7 +36433,7 @@
         <v>1531.60245967</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35044,7 +36466,7 @@
         <v>1537.00775967</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35077,7 +36499,7 @@
         <v>1533.200159669999</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35110,7 +36532,7 @@
         <v>1525.92645967</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35143,7 +36565,7 @@
         <v>1493.49215967</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35176,7 +36598,7 @@
         <v>1480.77195967</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35209,7 +36631,7 @@
         <v>1480.11625967</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35242,7 +36664,7 @@
         <v>1480.11625967</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35275,7 +36697,7 @@
         <v>1513.23389732</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35308,7 +36730,7 @@
         <v>1513.23389732</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35341,7 +36763,7 @@
         <v>1534.22578475</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35374,7 +36796,7 @@
         <v>1489.76088475</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35407,7 +36829,7 @@
         <v>1445.29158475</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35440,7 +36862,7 @@
         <v>1465.57208475</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35473,7 +36895,7 @@
         <v>1465.57208475</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35506,7 +36928,7 @@
         <v>1465.36208475</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35539,7 +36961,7 @@
         <v>1464.76888475</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35572,7 +36994,7 @@
         <v>1518.08028475</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35605,7 +37027,7 @@
         <v>1498.68298475</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35638,7 +37060,7 @@
         <v>1460.83688475</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35671,7 +37093,7 @@
         <v>1361.85308475</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35704,7 +37126,7 @@
         <v>1318.74278475</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35737,7 +37159,7 @@
         <v>1321.64218475</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35770,7 +37192,7 @@
         <v>1318.99028475</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35803,7 +37225,7 @@
         <v>1346.426384749999</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35836,7 +37258,7 @@
         <v>1358.351084749999</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35869,7 +37291,7 @@
         <v>1358.351084749999</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35902,7 +37324,7 @@
         <v>1323.037984749999</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35935,7 +37357,7 @@
         <v>1321.759584749999</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35968,7 +37390,7 @@
         <v>1288.378484749999</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36001,7 +37423,7 @@
         <v>1390.649484749999</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36034,7 +37456,7 @@
         <v>1586.015984749999</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36067,7 +37489,7 @@
         <v>1579.921784749999</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36100,7 +37522,7 @@
         <v>1593.159384749999</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36133,7 +37555,7 @@
         <v>1445.773084749999</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36166,7 +37588,7 @@
         <v>1479.702484749999</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36199,7 +37621,7 @@
         <v>1479.702484749999</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36232,7 +37654,7 @@
         <v>1474.319084749999</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -43338,6 +44760,6 @@
       <c r="M1232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>